--- a/particles_compare_final.xlsx
+++ b/particles_compare_final.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">EXPERIMENT</t>
   </si>
@@ -26,31 +26,46 @@
     <t xml:space="preserve">LARGE_BEFORE</t>
   </si>
   <si>
+    <t xml:space="preserve">TOT_VOLUME_BEFORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_VOLUME_BEFORE</t>
+  </si>
+  <si>
     <t xml:space="preserve">SMALL_AFTER</t>
   </si>
   <si>
     <t xml:space="preserve">LARGE_AFTER</t>
   </si>
   <si>
+    <t xml:space="preserve">TOT_VOLUME_AFTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_VOLUME_AFTER</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIFF_SMALL</t>
   </si>
   <si>
     <t xml:space="preserve">DIFF_LARGE</t>
   </si>
   <si>
+    <t xml:space="preserve">DIFF_TOT_VOLUME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIFF_IND_VOLUME</t>
+  </si>
+  <si>
     <t xml:space="preserve">DURATION</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">SACLA-P</t>
+    <t xml:space="preserve">PHYTO</t>
   </si>
   <si>
     <t xml:space="preserve">24h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHYTO</t>
   </si>
   <si>
     <t xml:space="preserve">SACLA-FE</t>
@@ -437,743 +452,1037 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>658</v>
+        <v>920</v>
       </c>
       <c r="D2" t="n">
-        <v>519</v>
+        <v>7921</v>
       </c>
       <c r="E2" t="n">
-        <v>268700</v>
+        <v>1364000</v>
       </c>
       <c r="F2" t="n">
-        <v>1580</v>
+        <v>172.200479737407</v>
       </c>
       <c r="G2" t="n">
-        <v>268042</v>
+        <v>842</v>
       </c>
       <c r="H2" t="n">
-        <v>1061</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
+        <v>7133</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1154000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>161.783260900042</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-78</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-788</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-210000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-10.4172188373648</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>920</v>
+        <v>14534</v>
       </c>
       <c r="D3" t="n">
-        <v>7921</v>
+        <v>1997</v>
       </c>
       <c r="E3" t="n">
-        <v>842</v>
+        <v>783100</v>
       </c>
       <c r="F3" t="n">
-        <v>7133</v>
+        <v>392.138207310966</v>
       </c>
       <c r="G3" t="n">
-        <v>-78</v>
+        <v>15428</v>
       </c>
       <c r="H3" t="n">
-        <v>-788</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
+        <v>516</v>
+      </c>
+      <c r="I3" t="n">
+        <v>704600</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1365.50387596899</v>
+      </c>
+      <c r="K3" t="n">
+        <v>894</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1481</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-78500</v>
+      </c>
+      <c r="N3" t="n">
+        <v>973.365668658026</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>14534</v>
+        <v>11294</v>
       </c>
       <c r="D4" t="n">
-        <v>1997</v>
+        <v>2033</v>
       </c>
       <c r="E4" t="n">
-        <v>15428</v>
+        <v>786500</v>
       </c>
       <c r="F4" t="n">
-        <v>516</v>
+        <v>386.866699458928</v>
       </c>
       <c r="G4" t="n">
-        <v>894</v>
+        <v>11848</v>
       </c>
       <c r="H4" t="n">
-        <v>-1481</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
+        <v>1897</v>
+      </c>
+      <c r="I4" t="n">
+        <v>695000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>366.36794939378</v>
+      </c>
+      <c r="K4" t="n">
+        <v>554</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-136</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-91500</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-20.498750065148</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>11294</v>
+        <v>3956</v>
       </c>
       <c r="D5" t="n">
-        <v>2033</v>
+        <v>38</v>
       </c>
       <c r="E5" t="n">
-        <v>11848</v>
+        <v>42714</v>
       </c>
       <c r="F5" t="n">
-        <v>1897</v>
+        <v>1124.05263157895</v>
       </c>
       <c r="G5" t="n">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="H5" t="n">
-        <v>-136</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
+        <v>153</v>
+      </c>
+      <c r="I5" t="n">
+        <v>65590</v>
+      </c>
+      <c r="J5" t="n">
+        <v>428.692810457516</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-3441</v>
+      </c>
+      <c r="L5" t="n">
+        <v>115</v>
+      </c>
+      <c r="M5" t="n">
+        <v>22876</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-695.359821121431</v>
+      </c>
+      <c r="O5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3956</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C6"/>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>758</v>
       </c>
       <c r="E6" t="n">
-        <v>515</v>
+        <v>210000</v>
       </c>
       <c r="F6" t="n">
-        <v>153</v>
+        <v>277.044854881266</v>
       </c>
       <c r="G6" t="n">
-        <v>-3441</v>
+        <v>4871</v>
       </c>
       <c r="H6" t="n">
-        <v>115</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
+        <v>630</v>
+      </c>
+      <c r="I6" t="n">
+        <v>229300</v>
+      </c>
+      <c r="J6" t="n">
+        <v>363.968253968254</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6" t="n">
+        <v>-128</v>
+      </c>
+      <c r="M6" t="n">
+        <v>19300</v>
+      </c>
+      <c r="N6" t="n">
+        <v>86.9233990869875</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7"/>
+        <v>21</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6529</v>
+      </c>
       <c r="D7" t="n">
-        <v>758</v>
+        <v>902</v>
       </c>
       <c r="E7" t="n">
-        <v>4871</v>
+        <v>387300</v>
       </c>
       <c r="F7" t="n">
-        <v>630</v>
-      </c>
-      <c r="G7"/>
+        <v>429.379157427938</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4942</v>
+      </c>
       <c r="H7" t="n">
-        <v>-128</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
+        <v>656</v>
+      </c>
+      <c r="I7" t="n">
+        <v>298400</v>
+      </c>
+      <c r="J7" t="n">
+        <v>454.878048780488</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-1587</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-246</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-88900</v>
+      </c>
+      <c r="N7" t="n">
+        <v>25.4988913525499</v>
+      </c>
+      <c r="O7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>6529</v>
+        <v>2106</v>
       </c>
       <c r="D8" t="n">
-        <v>902</v>
+        <v>298</v>
       </c>
       <c r="E8" t="n">
-        <v>4942</v>
+        <v>42714</v>
       </c>
       <c r="F8" t="n">
-        <v>656</v>
+        <v>143.335570469799</v>
       </c>
       <c r="G8" t="n">
-        <v>-1587</v>
+        <v>2073</v>
       </c>
       <c r="H8" t="n">
-        <v>-246</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
+        <v>247</v>
+      </c>
+      <c r="I8" t="n">
+        <v>87500</v>
+      </c>
+      <c r="J8" t="n">
+        <v>354.251012145749</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-33</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-51</v>
+      </c>
+      <c r="M8" t="n">
+        <v>44786</v>
+      </c>
+      <c r="N8" t="n">
+        <v>210.91544167595</v>
+      </c>
+      <c r="O8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>2106</v>
+        <v>610</v>
       </c>
       <c r="D9" t="n">
-        <v>298</v>
+        <v>6646</v>
       </c>
       <c r="E9" t="n">
-        <v>2073</v>
+        <v>1044000</v>
       </c>
       <c r="F9" t="n">
-        <v>247</v>
+        <v>157.086969605778</v>
       </c>
       <c r="G9" t="n">
-        <v>-33</v>
+        <v>749</v>
       </c>
       <c r="H9" t="n">
-        <v>-51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
+        <v>5320</v>
+      </c>
+      <c r="I9" t="n">
+        <v>786500</v>
+      </c>
+      <c r="J9" t="n">
+        <v>147.838345864662</v>
+      </c>
+      <c r="K9" t="n">
+        <v>139</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-1326</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-257500</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-9.24862374111626</v>
+      </c>
+      <c r="O9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>610</v>
+        <v>5863</v>
       </c>
       <c r="D10" t="n">
-        <v>6646</v>
+        <v>761</v>
       </c>
       <c r="E10" t="n">
-        <v>749</v>
+        <v>261100</v>
       </c>
       <c r="F10" t="n">
-        <v>5320</v>
+        <v>343.101182654402</v>
       </c>
       <c r="G10" t="n">
-        <v>139</v>
+        <v>5681</v>
       </c>
       <c r="H10" t="n">
-        <v>-1326</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
+        <v>556</v>
+      </c>
+      <c r="I10" t="n">
+        <v>214500</v>
+      </c>
+      <c r="J10" t="n">
+        <v>385.791366906475</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-182</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-205</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-46600</v>
+      </c>
+      <c r="N10" t="n">
+        <v>42.6901842520727</v>
+      </c>
+      <c r="O10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6590</v>
+      </c>
+      <c r="D11" t="n">
+        <v>810</v>
+      </c>
+      <c r="E11" t="n">
+        <v>349800</v>
+      </c>
+      <c r="F11" t="n">
+        <v>431.851851851852</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7080</v>
+      </c>
+      <c r="H11" t="n">
+        <v>798</v>
+      </c>
+      <c r="I11" t="n">
+        <v>266800</v>
+      </c>
+      <c r="J11" t="n">
+        <v>334.335839598997</v>
+      </c>
+      <c r="K11" t="n">
+        <v>490</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-12</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-83000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-97.5160122528544</v>
+      </c>
+      <c r="O11" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5863</v>
-      </c>
-      <c r="D11" t="n">
-        <v>761</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5681</v>
-      </c>
-      <c r="F11" t="n">
-        <v>556</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-182</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-205</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>6590</v>
+        <v>171</v>
       </c>
       <c r="D12" t="n">
-        <v>810</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
-        <v>7080</v>
+        <v>44125</v>
       </c>
       <c r="F12" t="n">
-        <v>798</v>
+        <v>1575.89285714286</v>
       </c>
       <c r="G12" t="n">
-        <v>490</v>
+        <v>614</v>
       </c>
       <c r="H12" t="n">
-        <v>-12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>11</v>
+        <v>139</v>
+      </c>
+      <c r="I12" t="n">
+        <v>75656</v>
+      </c>
+      <c r="J12" t="n">
+        <v>544.287769784173</v>
+      </c>
+      <c r="K12" t="n">
+        <v>443</v>
+      </c>
+      <c r="L12" t="n">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>31531</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-1031.60508735868</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" t="n">
-        <v>171</v>
+        <v>30781</v>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>4887</v>
       </c>
       <c r="E13" t="n">
-        <v>614</v>
+        <v>1890000</v>
       </c>
       <c r="F13" t="n">
-        <v>139</v>
+        <v>386.740331491713</v>
       </c>
       <c r="G13" t="n">
-        <v>443</v>
+        <v>39651</v>
       </c>
       <c r="H13" t="n">
-        <v>111</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
+        <v>4434</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1898000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>428.055931438881</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8870</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-453</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>41.3155999471687</v>
+      </c>
+      <c r="O13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>30781</v>
+        <v>36444</v>
       </c>
       <c r="D14" t="n">
-        <v>4887</v>
+        <v>5498</v>
       </c>
       <c r="E14" t="n">
-        <v>39651</v>
+        <v>2521000</v>
       </c>
       <c r="F14" t="n">
-        <v>4434</v>
+        <v>458.530374681702</v>
       </c>
       <c r="G14" t="n">
-        <v>8870</v>
+        <v>32364</v>
       </c>
       <c r="H14" t="n">
-        <v>-453</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
+        <v>4544</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1993000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>438.600352112676</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-4080</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-954</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-528000</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-19.9300225690264</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
       <c r="C15" t="n">
-        <v>36444</v>
+        <v>37849</v>
       </c>
       <c r="D15" t="n">
-        <v>5498</v>
+        <v>6261</v>
       </c>
       <c r="E15" t="n">
-        <v>32364</v>
+        <v>2468000</v>
       </c>
       <c r="F15" t="n">
-        <v>4544</v>
+        <v>394.186232231273</v>
       </c>
       <c r="G15" t="n">
-        <v>-4080</v>
+        <v>45942</v>
       </c>
       <c r="H15" t="n">
-        <v>-954</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
+        <v>5252</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2238000</v>
+      </c>
+      <c r="J15" t="n">
+        <v>426.123381568926</v>
+      </c>
+      <c r="K15" t="n">
+        <v>8093</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-1009</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-230000</v>
+      </c>
+      <c r="N15" t="n">
+        <v>31.9371493376531</v>
+      </c>
+      <c r="O15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>37849</v>
+        <v>956</v>
       </c>
       <c r="D16" t="n">
-        <v>6261</v>
+        <v>6767</v>
       </c>
       <c r="E16" t="n">
-        <v>45942</v>
+        <v>1137000</v>
       </c>
       <c r="F16" t="n">
-        <v>5252</v>
+        <v>168.021279739914</v>
       </c>
       <c r="G16" t="n">
-        <v>8093</v>
+        <v>1198</v>
       </c>
       <c r="H16" t="n">
-        <v>-1009</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
+        <v>6652</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1062000</v>
+      </c>
+      <c r="J16" t="n">
+        <v>159.651232711966</v>
+      </c>
+      <c r="K16" t="n">
+        <v>242</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-115</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-75000</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-8.37004702794798</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>32127</v>
+        <v>49062</v>
       </c>
       <c r="D17" t="n">
-        <v>5465</v>
+        <v>6566</v>
       </c>
       <c r="E17" t="n">
-        <v>28683</v>
+        <v>1638000</v>
       </c>
       <c r="F17" t="n">
-        <v>6040</v>
+        <v>249.466950959488</v>
       </c>
       <c r="G17" t="n">
-        <v>-3444</v>
+        <v>47848</v>
       </c>
       <c r="H17" t="n">
-        <v>575</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
+        <v>5855</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1491000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>254.65414175918</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-1214</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-711</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-147000</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.1871907996919</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>956</v>
+        <v>34259</v>
       </c>
       <c r="D18" t="n">
-        <v>6767</v>
+        <v>4314</v>
       </c>
       <c r="E18" t="n">
-        <v>1198</v>
+        <v>1734000</v>
       </c>
       <c r="F18" t="n">
-        <v>6652</v>
+        <v>401.947148817802</v>
       </c>
       <c r="G18" t="n">
-        <v>242</v>
+        <v>31226</v>
       </c>
       <c r="H18" t="n">
-        <v>-115</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
+        <v>3784</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1444000</v>
+      </c>
+      <c r="J18" t="n">
+        <v>381.606765327696</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-3033</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-530</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-290000</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-20.3403834901069</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="n">
-        <v>49062</v>
-      </c>
-      <c r="D19" t="n">
-        <v>6566</v>
-      </c>
-      <c r="E19" t="n">
-        <v>47848</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5855</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
       <c r="G19" t="n">
-        <v>-1214</v>
+        <v>681</v>
       </c>
       <c r="H19" t="n">
-        <v>-711</v>
-      </c>
-      <c r="I19" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="I19" t="n">
+        <v>102800</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1253.65853658537</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
       <c r="C20" t="n">
-        <v>34259</v>
+        <v>33745</v>
       </c>
       <c r="D20" t="n">
-        <v>4314</v>
+        <v>5714</v>
       </c>
       <c r="E20" t="n">
-        <v>31226</v>
+        <v>2176000</v>
       </c>
       <c r="F20" t="n">
-        <v>3784</v>
+        <v>380.819040952048</v>
       </c>
       <c r="G20" t="n">
-        <v>-3033</v>
+        <v>38527</v>
       </c>
       <c r="H20" t="n">
-        <v>-530</v>
-      </c>
-      <c r="I20" t="s">
-        <v>19</v>
+        <v>4670</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1807000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>386.937901498929</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4782</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-1044</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-369000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.11886054688176</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21"/>
+        <v>25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>34094</v>
+      </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4161</v>
       </c>
       <c r="E21" t="n">
-        <v>681</v>
+        <v>2062000</v>
       </c>
       <c r="F21" t="n">
-        <v>82</v>
-      </c>
-      <c r="G21"/>
+        <v>495.553953376592</v>
+      </c>
+      <c r="G21" t="n">
+        <v>31472</v>
+      </c>
       <c r="H21" t="n">
-        <v>82</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
+        <v>3892</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1950000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>501.027749229188</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-2622</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-269</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-112000</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.47379585259597</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C22" t="n">
-        <v>33745</v>
+        <v>23971</v>
       </c>
       <c r="D22" t="n">
-        <v>5714</v>
+        <v>4012</v>
       </c>
       <c r="E22" t="n">
-        <v>38527</v>
+        <v>1943000</v>
       </c>
       <c r="F22" t="n">
-        <v>4670</v>
+        <v>484.297108673978</v>
       </c>
       <c r="G22" t="n">
-        <v>4782</v>
+        <v>32527</v>
       </c>
       <c r="H22" t="n">
-        <v>-1044</v>
-      </c>
-      <c r="I22" t="s">
-        <v>19</v>
+        <v>3753</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1831000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>487.876365574207</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8556</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-259</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-112000</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.57925690022921</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" t="n">
-        <v>34094</v>
+        <v>1168</v>
       </c>
       <c r="D23" t="n">
-        <v>4161</v>
+        <v>6957</v>
       </c>
       <c r="E23" t="n">
-        <v>31472</v>
+        <v>1137000</v>
       </c>
       <c r="F23" t="n">
-        <v>3892</v>
+        <v>163.432514014661</v>
       </c>
       <c r="G23" t="n">
-        <v>-2622</v>
+        <v>960</v>
       </c>
       <c r="H23" t="n">
-        <v>-269</v>
-      </c>
-      <c r="I23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="n">
-        <v>23971</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4012</v>
-      </c>
-      <c r="E24" t="n">
-        <v>32527</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3753</v>
-      </c>
-      <c r="G24" t="n">
-        <v>8556</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-259</v>
-      </c>
-      <c r="I24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="n">
-        <v>28736</v>
-      </c>
-      <c r="D25" t="n">
-        <v>6569</v>
-      </c>
-      <c r="E25" t="n">
-        <v>29847</v>
-      </c>
-      <c r="F25" t="n">
-        <v>6140</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1111</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-429</v>
-      </c>
-      <c r="I25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1168</v>
-      </c>
-      <c r="D26" t="n">
-        <v>6957</v>
-      </c>
-      <c r="E26" t="n">
-        <v>960</v>
-      </c>
-      <c r="F26" t="n">
         <v>6317</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I23" t="n">
+        <v>927500</v>
+      </c>
+      <c r="J23" t="n">
+        <v>146.826025011873</v>
+      </c>
+      <c r="K23" t="n">
         <v>-208</v>
       </c>
-      <c r="H26" t="n">
+      <c r="L23" t="n">
         <v>-640</v>
       </c>
-      <c r="I26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27" t="n">
-        <v>256100</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2116</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27" t="s">
-        <v>11</v>
+      <c r="M23" t="n">
+        <v>-209500</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-16.6064890027887</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/particles_compare_final.xlsx
+++ b/particles_compare_final.xlsx
@@ -86,13 +86,13 @@
     <t xml:space="preserve">5A</t>
   </si>
   <si>
+    <t xml:space="preserve">SACLA-FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5B</t>
+  </si>
+  <si>
     <t xml:space="preserve">48h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACLA-FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5B</t>
   </si>
 </sst>
 </file>
@@ -981,7 +981,7 @@
         <v>-1031.60508735868</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -1028,7 +1028,7 @@
         <v>41.3155999471687</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1036,7 +1036,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
         <v>36444</v>
@@ -1075,7 +1075,7 @@
         <v>-19.9300225690264</v>
       </c>
       <c r="O14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1122,7 +1122,7 @@
         <v>31.9371493376531</v>
       </c>
       <c r="O15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -1169,7 +1169,7 @@
         <v>-8.37004702794798</v>
       </c>
       <c r="O16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -1216,7 +1216,7 @@
         <v>5.1871907996919</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -1263,12 +1263,12 @@
         <v>-20.3403834901069</v>
       </c>
       <c r="O18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1294,12 +1294,12 @@
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1341,15 +1341,15 @@
         <v>6.11886054688176</v>
       </c>
       <c r="O20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
         <v>34094</v>
@@ -1388,12 +1388,12 @@
         <v>5.47379585259597</v>
       </c>
       <c r="O21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -1435,12 +1435,12 @@
         <v>3.57925690022921</v>
       </c>
       <c r="O22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -1482,7 +1482,7 @@
         <v>-16.6064890027887</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/particles_compare_final.xlsx
+++ b/particles_compare_final.xlsx
@@ -1,106 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://niva365-my.sharepoint.com/personal/kristina_kvile_niva_no/Documents/SeedMoney-KVI-2021/CopeLinkExp2021/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_FA562CFC86E1BB4B576384CC1636AEF4131F6584" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t xml:space="preserve">EXPERIMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMALL_BEFORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LARGE_BEFORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOT_VOLUME_BEFORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_VOLUME_BEFORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMALL_AFTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LARGE_AFTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOT_VOLUME_AFTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_VOLUME_AFTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIFF_SMALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIFF_LARGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIFF_TOT_VOLUME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIFF_IND_VOLUME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DURATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHYTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACLA-FE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMHY-FE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMHY-FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACLA-FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48h</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
+  <si>
+    <t>EXPERIMENT</t>
+  </si>
+  <si>
+    <t>TREATMENT</t>
+  </si>
+  <si>
+    <t>SMALL_BEFORE</t>
+  </si>
+  <si>
+    <t>LARGE_BEFORE</t>
+  </si>
+  <si>
+    <t>TOT_VOLUME_BEFORE</t>
+  </si>
+  <si>
+    <t>IND_VOLUME_BEFORE</t>
+  </si>
+  <si>
+    <t>SMALL_AFTER</t>
+  </si>
+  <si>
+    <t>LARGE_AFTER</t>
+  </si>
+  <si>
+    <t>TOT_VOLUME_AFTER</t>
+  </si>
+  <si>
+    <t>IND_VOLUME_AFTER</t>
+  </si>
+  <si>
+    <t>DIFF_SMALL</t>
+  </si>
+  <si>
+    <t>DIFF_LARGE</t>
+  </si>
+  <si>
+    <t>DIFF_TOT_VOLUME</t>
+  </si>
+  <si>
+    <t>DIFF_IND_VOLUME</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>PHYTO</t>
+  </si>
+  <si>
+    <t>24h</t>
+  </si>
+  <si>
+    <t>SACLA-FE</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>LAMHY-FE</t>
+  </si>
+  <si>
+    <t>LAMHY-FR</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>SACLA-FR</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>48h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -136,6 +143,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -417,14 +433,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,1015 +489,1005 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>920</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>7921</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1364000</v>
       </c>
-      <c r="F2" t="n">
-        <v>172.200479737407</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2">
+        <v>172.20047973740699</v>
+      </c>
+      <c r="G2">
         <v>842</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>7133</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>1154000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>161.783260900042</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>-78</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>-788</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>-210000</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>-10.4172188373648</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>14534</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1997</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>783100</v>
       </c>
-      <c r="F3" t="n">
-        <v>392.138207310966</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>392.13820731096598</v>
+      </c>
+      <c r="G3">
         <v>15428</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>516</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>704600</v>
       </c>
-      <c r="J3" t="n">
-        <v>1365.50387596899</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J3">
+        <v>1365.5038759689901</v>
+      </c>
+      <c r="K3">
         <v>894</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>-1481</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>-78500</v>
       </c>
-      <c r="N3" t="n">
-        <v>973.365668658026</v>
+      <c r="N3">
+        <v>973.36566865802604</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>11294</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2033</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>786500</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>386.866699458928</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>11848</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>1897</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>695000</v>
       </c>
-      <c r="J4" t="n">
-        <v>366.36794939378</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J4">
+        <v>366.36794939378001</v>
+      </c>
+      <c r="K4">
         <v>554</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>-136</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>-91500</v>
       </c>
-      <c r="N4" t="n">
-        <v>-20.498750065148</v>
+      <c r="N4">
+        <v>-20.498750065147998</v>
       </c>
       <c r="O4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3956</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>38</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>42714</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1124.05263157895</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>515</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>153</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>65590</v>
       </c>
-      <c r="J5" t="n">
-        <v>428.692810457516</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J5">
+        <v>428.69281045751598</v>
+      </c>
+      <c r="K5">
         <v>-3441</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>115</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>22876</v>
       </c>
-      <c r="N5" t="n">
-        <v>-695.359821121431</v>
+      <c r="N5">
+        <v>-695.35982112143097</v>
       </c>
       <c r="O5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6"/>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>758</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>210000</v>
       </c>
-      <c r="F6" t="n">
-        <v>277.044854881266</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6">
+        <v>277.04485488126602</v>
+      </c>
+      <c r="G6">
         <v>4871</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>630</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>229300</v>
       </c>
-      <c r="J6" t="n">
-        <v>363.968253968254</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6" t="n">
+      <c r="J6">
+        <v>363.96825396825398</v>
+      </c>
+      <c r="L6">
         <v>-128</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>19300</v>
       </c>
-      <c r="N6" t="n">
-        <v>86.9233990869875</v>
+      <c r="N6">
+        <v>86.923399086987502</v>
       </c>
       <c r="O6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6529</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>902</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>387300</v>
       </c>
-      <c r="F7" t="n">
-        <v>429.379157427938</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7">
+        <v>429.37915742793803</v>
+      </c>
+      <c r="G7">
         <v>4942</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>656</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>298400</v>
       </c>
-      <c r="J7" t="n">
-        <v>454.878048780488</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J7">
+        <v>454.87804878048797</v>
+      </c>
+      <c r="K7">
         <v>-1587</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>-246</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>-88900</v>
       </c>
-      <c r="N7" t="n">
-        <v>25.4988913525499</v>
+      <c r="N7">
+        <v>25.498891352549901</v>
       </c>
       <c r="O7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>2106</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>298</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>42714</v>
       </c>
-      <c r="F8" t="n">
-        <v>143.335570469799</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8">
+        <v>143.33557046979899</v>
+      </c>
+      <c r="G8">
         <v>2073</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>247</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>87500</v>
       </c>
-      <c r="J8" t="n">
-        <v>354.251012145749</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J8">
+        <v>354.25101214574897</v>
+      </c>
+      <c r="K8">
         <v>-33</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>-51</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>44786</v>
       </c>
-      <c r="N8" t="n">
-        <v>210.91544167595</v>
+      <c r="N8">
+        <v>210.91544167595001</v>
       </c>
       <c r="O8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>610</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>6646</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1044000</v>
       </c>
-      <c r="F9" t="n">
-        <v>157.086969605778</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9">
+        <v>157.08696960577799</v>
+      </c>
+      <c r="G9">
         <v>749</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>5320</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>786500</v>
       </c>
-      <c r="J9" t="n">
-        <v>147.838345864662</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J9">
+        <v>147.83834586466199</v>
+      </c>
+      <c r="K9">
         <v>139</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>-1326</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>-257500</v>
       </c>
-      <c r="N9" t="n">
-        <v>-9.24862374111626</v>
+      <c r="N9">
+        <v>-9.2486237411162602</v>
       </c>
       <c r="O9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5863</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>761</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>261100</v>
       </c>
-      <c r="F10" t="n">
-        <v>343.101182654402</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10">
+        <v>343.10118265440201</v>
+      </c>
+      <c r="G10">
         <v>5681</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>556</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>214500</v>
       </c>
-      <c r="J10" t="n">
-        <v>385.791366906475</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J10">
+        <v>385.79136690647499</v>
+      </c>
+      <c r="K10">
         <v>-182</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>-205</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>-46600</v>
       </c>
-      <c r="N10" t="n">
-        <v>42.6901842520727</v>
+      <c r="N10">
+        <v>42.690184252072697</v>
       </c>
       <c r="O10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>6590</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>810</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>349800</v>
       </c>
-      <c r="F11" t="n">
-        <v>431.851851851852</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11">
+        <v>431.85185185185202</v>
+      </c>
+      <c r="G11">
         <v>7080</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>798</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>266800</v>
       </c>
-      <c r="J11" t="n">
-        <v>334.335839598997</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J11">
+        <v>334.33583959899698</v>
+      </c>
+      <c r="K11">
         <v>490</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>-12</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>-83000</v>
       </c>
-      <c r="N11" t="n">
-        <v>-97.5160122528544</v>
+      <c r="N11">
+        <v>-97.516012252854395</v>
       </c>
       <c r="O11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>171</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>28</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>44125</v>
       </c>
-      <c r="F12" t="n">
-        <v>1575.89285714286</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="F12">
+        <v>1575.8928571428601</v>
+      </c>
+      <c r="G12">
         <v>614</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>139</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>75656</v>
       </c>
-      <c r="J12" t="n">
-        <v>544.287769784173</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J12">
+        <v>544.28776978417295</v>
+      </c>
+      <c r="K12">
         <v>443</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>111</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>31531</v>
       </c>
-      <c r="N12" t="n">
-        <v>-1031.60508735868</v>
+      <c r="N12">
+        <v>-1031.6050873586801</v>
       </c>
       <c r="O12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>30781</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>4887</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1890000</v>
       </c>
-      <c r="F13" t="n">
-        <v>386.740331491713</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="F13">
+        <v>386.74033149171299</v>
+      </c>
+      <c r="G13">
         <v>39651</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>4434</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>1898000</v>
       </c>
-      <c r="J13" t="n">
-        <v>428.055931438881</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J13">
+        <v>428.05593143888098</v>
+      </c>
+      <c r="K13">
         <v>8870</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>-453</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>8000</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>41.3155999471687</v>
       </c>
       <c r="O13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>36444</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>5498</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>2521000</v>
       </c>
-      <c r="F14" t="n">
-        <v>458.530374681702</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F14">
+        <v>458.53037468170203</v>
+      </c>
+      <c r="G14">
         <v>32364</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>4544</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>1993000</v>
       </c>
-      <c r="J14" t="n">
-        <v>438.600352112676</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J14">
+        <v>438.60035211267598</v>
+      </c>
+      <c r="K14">
         <v>-4080</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>-954</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>-528000</v>
       </c>
-      <c r="N14" t="n">
-        <v>-19.9300225690264</v>
+      <c r="N14">
+        <v>-19.930022569026399</v>
       </c>
       <c r="O14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>37849</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>6261</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>2468000</v>
       </c>
-      <c r="F15" t="n">
-        <v>394.186232231273</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="F15">
+        <v>394.18623223127298</v>
+      </c>
+      <c r="G15">
         <v>45942</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>5252</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>2238000</v>
       </c>
-      <c r="J15" t="n">
-        <v>426.123381568926</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J15">
+        <v>426.12338156892599</v>
+      </c>
+      <c r="K15">
         <v>8093</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>-1009</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>-230000</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>31.9371493376531</v>
       </c>
       <c r="O15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>956</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>6767</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>1137000</v>
       </c>
-      <c r="F16" t="n">
-        <v>168.021279739914</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F16">
+        <v>168.02127973991401</v>
+      </c>
+      <c r="G16">
         <v>1198</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>6652</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>1062000</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>159.651232711966</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>242</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>-115</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>-75000</v>
       </c>
-      <c r="N16" t="n">
-        <v>-8.37004702794798</v>
+      <c r="N16">
+        <v>-8.3700470279479795</v>
       </c>
       <c r="O16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>49062</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>6566</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>1638000</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>249.466950959488</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>47848</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>5855</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>1491000</v>
       </c>
-      <c r="J17" t="n">
-        <v>254.65414175918</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J17">
+        <v>254.65414175917999</v>
+      </c>
+      <c r="K17">
         <v>-1214</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>-711</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>-147000</v>
       </c>
-      <c r="N17" t="n">
-        <v>5.1871907996919</v>
+      <c r="N17">
+        <v>5.1871907996918996</v>
       </c>
       <c r="O17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>34259</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>4314</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>1734000</v>
       </c>
-      <c r="F18" t="n">
-        <v>401.947148817802</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="F18">
+        <v>401.94714881780197</v>
+      </c>
+      <c r="G18">
         <v>31226</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>3784</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>1444000</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>381.606765327696</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>-3033</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>-530</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>-290000</v>
       </c>
-      <c r="N18" t="n">
-        <v>-20.3403834901069</v>
+      <c r="N18">
+        <v>-20.340383490106898</v>
       </c>
       <c r="O18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>681</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>82</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>102800</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>1253.65853658537</v>
       </c>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
       <c r="O19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>33745</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>5714</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>2176000</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>380.819040952048</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>38527</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>4670</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>1807000</v>
       </c>
-      <c r="J20" t="n">
-        <v>386.937901498929</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J20">
+        <v>386.93790149892902</v>
+      </c>
+      <c r="K20">
         <v>4782</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>-1044</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>-369000</v>
       </c>
-      <c r="N20" t="n">
-        <v>6.11886054688176</v>
+      <c r="N20">
+        <v>6.1188605468817601</v>
       </c>
       <c r="O20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>34094</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>4161</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>2062000</v>
       </c>
-      <c r="F21" t="n">
-        <v>495.553953376592</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21">
+        <v>495.55395337659201</v>
+      </c>
+      <c r="G21">
         <v>31472</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>3892</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>1950000</v>
       </c>
-      <c r="J21" t="n">
-        <v>501.027749229188</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J21">
+        <v>501.02774922918798</v>
+      </c>
+      <c r="K21">
         <v>-2622</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>-269</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>-112000</v>
       </c>
-      <c r="N21" t="n">
-        <v>5.47379585259597</v>
+      <c r="N21">
+        <v>5.4737958525959698</v>
       </c>
       <c r="O21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>23971</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>4012</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>1943000</v>
       </c>
-      <c r="F22" t="n">
-        <v>484.297108673978</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="F22">
+        <v>484.29710867397802</v>
+      </c>
+      <c r="G22">
         <v>32527</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>3753</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>1831000</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>487.876365574207</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>8556</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>-259</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>-112000</v>
       </c>
-      <c r="N22" t="n">
-        <v>3.57925690022921</v>
+      <c r="N22">
+        <v>3.5792569002292098</v>
       </c>
       <c r="O22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1168</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>6957</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>1137000</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>163.432514014661</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>960</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>6317</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>927500</v>
       </c>
-      <c r="J23" t="n">
-        <v>146.826025011873</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J23">
+        <v>146.82602501187301</v>
+      </c>
+      <c r="K23">
         <v>-208</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>-640</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>-209500</v>
       </c>
-      <c r="N23" t="n">
-        <v>-16.6064890027887</v>
+      <c r="N23">
+        <v>-16.606489002788699</v>
       </c>
       <c r="O23" t="s">
         <v>26</v>
@@ -1487,6 +1495,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>